--- a/data/outputs/excel/steam_exam_id_map.xlsx
+++ b/data/outputs/excel/steam_exam_id_map.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,138 +484,6 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>S003</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>2ndtest_LÊ NGỌC HUYỀN THU_QUẬN 5 - Trường Tiểu học Phạm Hồng Thái Q5.docx</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>S004</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Nguyễn Lâm Hữu Phước</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>2ndtest_NguyenLamHuuPhuoc_DHSPTPHCM - Huu Phuoc Nguyen Lam.docx</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>S005</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Nguyễn Thị Mỹ Tho</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>2ndtest_NguyenThiMyTho_ThuDuc - Z5804.docx</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>S006</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Nguyễn Thị Phương Cảnh</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>2ndtest_NguyenThiPhuongCanh - BinhChanh - Phuong Canh Nguyen.docx</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>S007</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>NGUYỄN THỊ XUÂN THI</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>2ndtest_NGUYENTHIXUANTHI_PhuNhuan - thi nguyen.docx</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>S008</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>NGUYỄN TRỊNH HỒNG PHƯƠNG</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>2ndtest_NguyenTrinhHongPhuong_HocMon - Nguyễn Hồng Phương.docx</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>S009</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Phạm Trần Thùy Dung</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>2ndtest_PhamTranThuyDung_BinhChanh - Phạm Trần Thùy Dung.docx</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>S010</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>TRẦN THỊ MỘNG QUYÊN</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>2ndtest_TRẦN THỊ MỘNG QUYÊN_NHÀ BÈ - Quyen Quyen.docx</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/outputs/excel/steam_exam_id_map.xlsx
+++ b/data/outputs/excel/steam_exam_id_map.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,12 +458,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>NGUYỄN THANH NHÀN</t>
+          <t>NĂNG XUÂN HOÀNG NHI</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2nd_test_NguyenThanhNhan_HocMon - Nguyễn Thanh Nhàn.docx</t>
+          <t>2nd_Năng Xuân Hoàng Nhi_Quận 4 - Nhi Năng.docx</t>
         </is>
       </c>
     </row>
@@ -475,12 +475,463 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>NGUYỄN THANH NHÀN</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2nd_test_NguyenThanhNhan_HocMon - Nguyễn Thanh Nhàn.docx</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>S003</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2ndtest-Trần Thị Tú Uyên-Phân hiệu Long An - Tran Thi Tu Uyen Phan Hieu Long An.docx</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>S004</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Đặng Ngọc Hân</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2ndtest_DangNgocHan_HCMUE - Ngọc Hân Đặng.docx</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>S005</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Diệp Mỹ Kỳ</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2ndtest_Diệp Mỹ Kỳ _Quận Tân Phú - Mỹ Kỳ Diệp.docx</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>S006</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>DƯƠNG NGUYỄN ÁI THƯ</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2ndtest_DuongNguyenAiThu_HCMUE - GDTH Duong Nguyen Ai Thu.docx</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>S007</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>HOÀNG THỊ NHƯ NGỌC</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>2ndtest_HoangThiNhuNgoc_Quan12 - Như Ngọc Hoàng Thị.docx</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>S008</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>HUỲNH THÚY VÂN</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2ndtest_HuynhThuyVan_BinhThanh - P P.docx</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>S009</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Hồng Thanh Trung</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2ndtest_Hồng Thanh Trung_Cần Giờ - Thanh Trung.docx</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>S010</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Lê Thị Hồng Cẩm</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2ndtest_LeThiHongCam_TanBinh - HongCam Le.docx</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>S011</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2ndtest_LÊ NGỌC HUYỀN THU_QUẬN 5 - Trường Tiểu học Phạm Hồng Thái Q5.docx</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>S012</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>NGUYỄN THỊ XUÂN THI</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2ndtest_NGUYENTHIXUANTHI_PhuNhuan - thi nguyen.docx</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>S013</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>NGHIÊM QUẾ NHI</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>2ndtest_NghiemQueNhi_Quan1 - GVCN 4_1 Quế Nhi.docx</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>S014</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Nguyễn Huy Thiên Thơ</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>2ndtest_NguyenHuyThienTho_BinhTan - Tho Nguyen Huy Thien.docx</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>S015</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Nguyễn Lâm Hữu Phước</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>2ndtest_NguyenLamHuuPhuoc_DHSPTPHCM - Huu Phuoc Nguyen Lam.docx</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>S016</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>NGUYỄN NGỌC ĐAN</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>2ndtest_NguyenNgocDan_HCMUE - Dan Nguyen Ngoc.docx</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>S017</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Nguyễn Ngọc Vân Thy</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>2ndtest_NguyenNgocVanThy_11 - Nguyễn Thy.docx</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>S018</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Nguyễn Thị Mỹ Tho</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>2ndtest_NguyenThiMyTho_ThuDuc - Z5804.docx</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>S019</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Nguyễn Thị Phương Cảnh</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>2ndtest_NguyenThiPhuongCanh - BinhChanh - Phuong Canh Nguyen.docx</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>S020</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>NGUYỄN TRỊNH HỒNG PHƯƠNG</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2ndtest_NguyenTrinhHongPhuong_HocMon - Nguyễn Hồng Phương.docx</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>S021</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Phạm Trần Thùy Dung</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>2ndtest_PhamTranThuyDung_BinhChanh - Phạm Trần Thùy Dung.docx</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>S022</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>TRẦN THỊ THANH HIỀN</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>2ndtest_TRAN THI THANH HIEN_QUAN 3 - THANH HIEN (1).docx</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>S023</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>TRẦN THỊ THANH HIỀN</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>2ndtest_TRAN THI THANH HIEN_QUAN 3 - THANH HIEN.docx</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>S024</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>TRẦN THỊ MỘNG QUYÊN</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>2ndtest_TRẦN THỊ MỘNG QUYÊN_NHÀ BÈ - Quyen Quyen.docx</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>S025</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Trần Thị Mỹ Liến</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>2ndtest_TranThiMyLien_ThuDuc - Liến Út.docx</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>S026</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>TRẦN THỊ NGỌC HUYỀN</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>2ndtest_TranThiNgocHuyen_Quan12 - Ngọc Huyền.docx</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>S027</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>TRƯƠNG THỊ THANH LAN</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>2ndtest_TruongThiThanhLan_Bai kiem_ThuDuc - Q3305.docx</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>S028</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>TRẦN THỊ THANH THỦY</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>2ndtest_Trần Thị Thanh Thủy_Tân Phú - Trần Thị Thanh Thuỷ.docx</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>S029</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Võ Thị Kim Thoa</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>2ndtest_VoThiKimThoa_NhaBe - Kimthoa Vo.docx</t>
         </is>
       </c>
     </row>
